--- a/data/trans_orig/Q5408-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5408-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51D1EFF5-3660-4485-ABAC-1191FD0686CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9377917A-C112-43B7-B65E-6DDC6F78DEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EE9A9745-AC51-4610-8908-C3194891CDBB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66D0D957-D8B7-4724-87E3-B292B95E208F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="707">
   <si>
     <t>Población según si es capaz de usar el bater en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -92,2122 +92,2074 @@
     <t>7,66%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
   </si>
   <si>
     <t>2,98%</t>
   </si>
   <si>
-    <t>13,74%</t>
+    <t>14,52%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
   </si>
   <si>
     <t>90,6%</t>
   </si>
   <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
   </si>
   <si>
     <t>4,24%</t>
   </si>
   <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
   </si>
   <si>
     <t>94,83%</t>
   </si>
   <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
   </si>
   <si>
     <t>94,36%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
+    <t>93,71%</t>
   </si>
   <si>
     <t>92,64%</t>
   </si>
   <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
+    <t>95,03%</t>
   </si>
 </sst>
 </file>
@@ -2619,7 +2571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE15C4BB-7507-4AAF-B2AE-5F84ADFEF737}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4D8788-365A-4961-B74D-295573F23504}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3636,10 +3588,10 @@
         <v>99</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -3648,13 +3600,13 @@
         <v>7486</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3621,13 @@
         <v>25066</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -3684,13 +3636,13 @@
         <v>36900</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -3699,13 +3651,13 @@
         <v>61965</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,7 +3713,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3779,7 +3731,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3794,7 +3746,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3809,7 +3761,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,13 +3776,13 @@
         <v>2741</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -3839,13 +3791,13 @@
         <v>7243</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -3854,13 +3806,13 @@
         <v>9984</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,13 +3827,13 @@
         <v>44455</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H26" s="7">
         <v>61</v>
@@ -3890,13 +3842,13 @@
         <v>63066</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M26" s="7">
         <v>107</v>
@@ -3905,13 +3857,13 @@
         <v>107522</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,7 +3919,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3979,13 +3931,13 @@
         <v>838</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3994,13 +3946,13 @@
         <v>2021</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -4009,13 +3961,13 @@
         <v>2859</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,7 +4018,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,10 +4033,10 @@
         <v>104140</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>30</v>
@@ -4096,13 +4048,13 @@
         <v>114064</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M30" s="7">
         <v>220</v>
@@ -4111,13 +4063,13 @@
         <v>218204</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,7 +4125,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4191,7 +4143,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -4200,13 +4152,13 @@
         <v>2521</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -4215,13 +4167,13 @@
         <v>2521</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,10 +4188,10 @@
         <v>2925</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>163</v>
@@ -4269,10 +4221,10 @@
         <v>167</v>
       </c>
       <c r="P33" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4239,13 @@
         <v>108968</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="H34" s="7">
         <v>137</v>
@@ -4305,10 +4257,10 @@
         <v>70</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M34" s="7">
         <v>250</v>
@@ -4317,13 +4269,13 @@
         <v>253604</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4343,13 @@
         <v>1669</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -4406,13 +4358,13 @@
         <v>5683</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M36" s="7">
         <v>8</v>
@@ -4421,13 +4373,13 @@
         <v>7352</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,13 +4394,13 @@
         <v>17441</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H37" s="7">
         <v>28</v>
@@ -4457,13 +4409,13 @@
         <v>31725</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M37" s="7">
         <v>47</v>
@@ -4472,13 +4424,13 @@
         <v>49165</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,13 +4445,13 @@
         <v>483356</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H38" s="7">
         <v>627</v>
@@ -4508,13 +4460,13 @@
         <v>639434</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M38" s="7">
         <v>1129</v>
@@ -4523,13 +4475,13 @@
         <v>1122790</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,7 +4537,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4609,7 +4561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521C3F21-30DD-4222-A2F3-8A3DE3590B45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE0FDB1-D027-4AC9-92F5-C45FC485BB90}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4626,7 +4578,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4731,39 +4683,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,39 +4728,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,39 +4773,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,39 +4818,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,7 +4867,7 @@
         <v>2130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
@@ -4996,7 +4948,7 @@
         <v>12056</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>218</v>
@@ -5023,7 +4975,7 @@
         <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>83</v>
@@ -5032,13 +4984,13 @@
         <v>89770</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>147</v>
@@ -5047,13 +4999,13 @@
         <v>162643</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>227</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,10 +5091,10 @@
         <v>59</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -5151,13 +5103,13 @@
         <v>8449</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5124,13 @@
         <v>2076</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5187,13 +5139,13 @@
         <v>5397</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -5202,13 +5154,13 @@
         <v>7473</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5175,13 @@
         <v>50679</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H14" s="7">
         <v>65</v>
@@ -5238,13 +5190,13 @@
         <v>69109</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M14" s="7">
         <v>113</v>
@@ -5253,13 +5205,13 @@
         <v>119788</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,13 +5279,13 @@
         <v>994</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5348,7 +5300,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5357,13 +5309,13 @@
         <v>994</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5330,13 @@
         <v>6119</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -5393,13 +5345,13 @@
         <v>7634</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -5408,13 +5360,13 @@
         <v>13753</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5381,13 @@
         <v>101195</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H18" s="7">
         <v>122</v>
@@ -5444,13 +5396,13 @@
         <v>126834</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>269</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>270</v>
+        <v>72</v>
       </c>
       <c r="M18" s="7">
         <v>213</v>
@@ -5459,13 +5411,13 @@
         <v>228030</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,7 +5491,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5548,13 +5500,13 @@
         <v>1987</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5563,13 +5515,13 @@
         <v>1987</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5536,13 @@
         <v>3292</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -5599,13 +5551,13 @@
         <v>3208</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -5614,13 +5566,13 @@
         <v>6500</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>286</v>
+        <v>116</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,13 +5587,13 @@
         <v>28320</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -5650,13 +5602,13 @@
         <v>44660</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -5665,13 +5617,13 @@
         <v>72980</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>294</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,7 +5679,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5739,13 +5691,13 @@
         <v>1057</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -5754,13 +5706,13 @@
         <v>1056</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -5769,13 +5721,13 @@
         <v>2113</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +5742,13 @@
         <v>2150</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>301</v>
+        <v>208</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5805,13 +5757,13 @@
         <v>6375</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -5820,13 +5772,13 @@
         <v>8525</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +5793,13 @@
         <v>48549</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -5856,13 +5808,13 @@
         <v>62780</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M26" s="7">
         <v>109</v>
@@ -5871,13 +5823,13 @@
         <v>111329</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,7 +5885,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5945,13 +5897,13 @@
         <v>3301</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -5966,7 +5918,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -5975,13 +5927,13 @@
         <v>5326</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,13 +5948,13 @@
         <v>3937</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -6011,13 +5963,13 @@
         <v>10016</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -6026,13 +5978,13 @@
         <v>13952</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>327</v>
+        <v>140</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>328</v>
+        <v>116</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,13 +5999,13 @@
         <v>105025</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>332</v>
+        <v>69</v>
       </c>
       <c r="H30" s="7">
         <v>118</v>
@@ -6062,13 +6014,13 @@
         <v>129921</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M30" s="7">
         <v>212</v>
@@ -6077,13 +6029,13 @@
         <v>234947</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,7 +6091,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6157,7 +6109,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>339</v>
+        <v>179</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -6166,13 +6118,13 @@
         <v>4357</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -6181,13 +6133,13 @@
         <v>4357</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,13 +6154,13 @@
         <v>4450</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>144</v>
+        <v>340</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -6217,13 +6169,13 @@
         <v>5624</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
@@ -6232,13 +6184,13 @@
         <v>10074</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6205,13 @@
         <v>116302</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H34" s="7">
         <v>142</v>
@@ -6268,13 +6220,13 @@
         <v>154435</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>357</v>
+        <v>222</v>
       </c>
       <c r="M34" s="7">
         <v>244</v>
@@ -6283,13 +6235,13 @@
         <v>270737</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,13 +6309,13 @@
         <v>10470</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>252</v>
+        <v>356</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>362</v>
+        <v>303</v>
       </c>
       <c r="H36" s="7">
         <v>17</v>
@@ -6372,13 +6324,13 @@
         <v>19355</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M36" s="7">
         <v>26</v>
@@ -6387,13 +6339,13 @@
         <v>29824</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6360,13 @@
         <v>26223</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H37" s="7">
         <v>42</v>
@@ -6423,13 +6375,13 @@
         <v>46111</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="M37" s="7">
         <v>66</v>
@@ -6438,13 +6390,13 @@
         <v>72334</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>305</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,13 +6411,13 @@
         <v>522945</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="H38" s="7">
         <v>635</v>
@@ -6474,13 +6426,13 @@
         <v>677509</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M38" s="7">
         <v>1106</v>
@@ -6489,13 +6441,13 @@
         <v>1200454</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>200</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,7 +6503,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -6575,7 +6527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E12541-BC59-437A-B277-5C0AB6416E3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B5A8DD-0BFE-466A-A95D-8F199D516303}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6592,7 +6544,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6699,13 +6651,13 @@
         <v>802</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>383</v>
+        <v>257</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6720,7 +6672,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6729,13 +6681,13 @@
         <v>802</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6750,13 +6702,13 @@
         <v>3188</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>389</v>
+        <v>255</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -6765,13 +6717,13 @@
         <v>2328</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -6780,13 +6732,13 @@
         <v>5516</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>394</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6801,13 +6753,13 @@
         <v>34906</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="H6" s="7">
         <v>41</v>
@@ -6816,10 +6768,10 @@
         <v>47063</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>30</v>
@@ -6828,16 +6780,16 @@
         <v>78</v>
       </c>
       <c r="N6" s="7">
-        <v>81968</v>
+        <v>81969</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6879,7 +6831,7 @@
         <v>85</v>
       </c>
       <c r="N7" s="7">
-        <v>88286</v>
+        <v>88287</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>34</v>
@@ -6911,7 +6863,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6920,13 +6872,13 @@
         <v>1347</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>210</v>
+        <v>397</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6935,13 +6887,13 @@
         <v>1347</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6956,13 +6908,13 @@
         <v>1903</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>408</v>
+        <v>100</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -6971,13 +6923,13 @@
         <v>8037</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>261</v>
+        <v>403</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -6986,13 +6938,13 @@
         <v>9941</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7007,10 +6959,10 @@
         <v>85392</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -7022,13 +6974,13 @@
         <v>105844</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="M10" s="7">
         <v>176</v>
@@ -7037,13 +6989,13 @@
         <v>191235</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7117,7 +7069,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7126,13 +7078,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7141,13 +7093,13 @@
         <v>4477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>192</v>
+        <v>419</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7162,13 +7114,13 @@
         <v>3685</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7183,7 +7135,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -7192,13 +7144,13 @@
         <v>3685</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>434</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7213,13 +7165,13 @@
         <v>59861</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -7228,13 +7180,13 @@
         <v>75420</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>438</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="M14" s="7">
         <v>134</v>
@@ -7243,13 +7195,13 @@
         <v>135280</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7317,13 +7269,13 @@
         <v>2957</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7347,13 +7299,13 @@
         <v>2957</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7368,13 +7320,13 @@
         <v>827</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -7383,13 +7335,13 @@
         <v>2574</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -7398,13 +7350,13 @@
         <v>3401</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>408</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>282</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7419,13 +7371,13 @@
         <v>60927</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="H18" s="7">
         <v>74</v>
@@ -7434,10 +7386,10 @@
         <v>89000</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>30</v>
@@ -7449,13 +7401,13 @@
         <v>149927</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>457</v>
+        <v>197</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7529,7 +7481,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7544,7 +7496,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7559,7 +7511,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7574,13 +7526,13 @@
         <v>799</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -7592,10 +7544,10 @@
         <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -7604,13 +7556,13 @@
         <v>4248</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>467</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7625,10 +7577,10 @@
         <v>41281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>30</v>
@@ -7643,10 +7595,10 @@
         <v>67</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="M22" s="7">
         <v>89</v>
@@ -7655,13 +7607,13 @@
         <v>88364</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7717,7 +7669,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7729,13 +7681,13 @@
         <v>826</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -7744,13 +7696,13 @@
         <v>3741</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>477</v>
+        <v>423</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -7759,13 +7711,13 @@
         <v>4566</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7780,13 +7732,13 @@
         <v>4050</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -7795,13 +7747,13 @@
         <v>7206</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -7810,13 +7762,13 @@
         <v>11257</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>489</v>
+        <v>13</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7831,13 +7783,13 @@
         <v>43570</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="H26" s="7">
         <v>50</v>
@@ -7846,13 +7798,13 @@
         <v>56441</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="M26" s="7">
         <v>99</v>
@@ -7861,13 +7813,13 @@
         <v>100011</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>499</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7923,7 +7875,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7935,13 +7887,13 @@
         <v>892</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -7950,13 +7902,13 @@
         <v>2476</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>503</v>
+        <v>319</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -7968,10 +7920,10 @@
         <v>213</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7986,13 +7938,13 @@
         <v>5661</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>507</v>
+        <v>229</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -8001,13 +7953,13 @@
         <v>6086</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>509</v>
+        <v>83</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>254</v>
+        <v>496</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -8016,13 +7968,13 @@
         <v>11747</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>513</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8037,13 +7989,13 @@
         <v>105632</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="H30" s="7">
         <v>118</v>
@@ -8052,13 +8004,13 @@
         <v>139063</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="M30" s="7">
         <v>220</v>
@@ -8067,13 +8019,13 @@
         <v>244695</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8129,7 +8081,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8147,7 +8099,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -8156,13 +8108,13 @@
         <v>1342</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -8171,13 +8123,13 @@
         <v>1342</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>320</v>
+        <v>510</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>92</v>
+        <v>511</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8192,13 +8144,13 @@
         <v>3409</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -8210,10 +8162,10 @@
         <v>39</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="M33" s="7">
         <v>8</v>
@@ -8222,13 +8174,13 @@
         <v>8677</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>178</v>
+        <v>517</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8243,13 +8195,13 @@
         <v>130759</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>531</v>
+        <v>326</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="H34" s="7">
         <v>137</v>
@@ -8258,13 +8210,13 @@
         <v>169687</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="M34" s="7">
         <v>274</v>
@@ -8273,13 +8225,13 @@
         <v>300446</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8347,13 +8299,13 @@
         <v>5477</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>345</v>
+        <v>527</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>181</v>
+        <v>529</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -8362,13 +8314,13 @@
         <v>13383</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>229</v>
+        <v>530</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>162</v>
+        <v>341</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="M36" s="7">
         <v>16</v>
@@ -8377,13 +8329,13 @@
         <v>18860</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>541</v>
+        <v>182</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>522</v>
+        <v>177</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>532</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8398,13 +8350,13 @@
         <v>23524</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>306</v>
+        <v>204</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="H37" s="7">
         <v>28</v>
@@ -8413,13 +8365,13 @@
         <v>34948</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -8428,13 +8380,13 @@
         <v>58472</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>547</v>
+        <v>216</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8449,13 +8401,13 @@
         <v>562328</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="H38" s="7">
         <v>617</v>
@@ -8464,13 +8416,13 @@
         <v>729599</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="M38" s="7">
         <v>1211</v>
@@ -8479,13 +8431,13 @@
         <v>1291927</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>195</v>
+        <v>545</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8541,7 +8493,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -8565,7 +8517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1A15C8-5B30-4AA1-A44B-B22AF7CE0E52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494C119D-4A44-406B-B6D6-361E2E5D46F2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8582,7 +8534,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8695,7 +8647,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>256</v>
+        <v>549</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8710,7 +8662,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8740,13 +8692,13 @@
         <v>697</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>348</v>
+        <v>551</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -8755,13 +8707,13 @@
         <v>4853</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -8770,13 +8722,13 @@
         <v>5550</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8791,10 +8743,10 @@
         <v>51223</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>30</v>
@@ -8806,13 +8758,13 @@
         <v>57366</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="M6" s="7">
         <v>206</v>
@@ -8821,13 +8773,13 @@
         <v>108589</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8901,7 +8853,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>572</v>
+        <v>529</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -8910,13 +8862,13 @@
         <v>4867</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>573</v>
+        <v>303</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>59</v>
+        <v>564</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -8925,13 +8877,13 @@
         <v>4867</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8946,13 +8898,13 @@
         <v>4713</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>577</v>
+        <v>440</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>578</v>
+        <v>257</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -8961,13 +8913,13 @@
         <v>15113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="M9" s="7">
         <v>27</v>
@@ -8976,13 +8928,13 @@
         <v>19826</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>414</v>
+        <v>571</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8997,13 +8949,13 @@
         <v>81601</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="H10" s="7">
         <v>195</v>
@@ -9012,13 +8964,13 @@
         <v>121378</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>589</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>285</v>
@@ -9027,13 +8979,13 @@
         <v>202979</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>133</v>
+        <v>431</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9101,13 +9053,13 @@
         <v>2613</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -9116,13 +9068,13 @@
         <v>1653</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>593</v>
+        <v>423</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>320</v>
+        <v>583</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -9131,13 +9083,13 @@
         <v>4266</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>587</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9152,13 +9104,13 @@
         <v>5351</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>597</v>
+        <v>535</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>589</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -9167,13 +9119,13 @@
         <v>11384</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -9182,13 +9134,13 @@
         <v>16735</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9203,13 +9155,13 @@
         <v>69637</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>605</v>
+        <v>446</v>
       </c>
       <c r="H14" s="7">
         <v>145</v>
@@ -9218,13 +9170,13 @@
         <v>81914</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="M14" s="7">
         <v>254</v>
@@ -9233,13 +9185,13 @@
         <v>151551</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>611</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9313,7 +9265,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>351</v>
+        <v>602</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -9322,13 +9274,13 @@
         <v>2239</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>136</v>
+        <v>583</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>613</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -9340,10 +9292,10 @@
         <v>38</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>422</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9358,13 +9310,13 @@
         <v>728</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>615</v>
+        <v>144</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -9373,13 +9325,13 @@
         <v>2829</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>617</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>489</v>
+        <v>606</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -9388,13 +9340,13 @@
         <v>3557</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>429</v>
+        <v>607</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>618</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9409,10 +9361,10 @@
         <v>78077</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>30</v>
@@ -9424,13 +9376,13 @@
         <v>105387</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>534</v>
+        <v>610</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="M18" s="7">
         <v>361</v>
@@ -9439,13 +9391,13 @@
         <v>183464</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9519,7 +9471,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -9528,13 +9480,13 @@
         <v>983</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>626</v>
+        <v>498</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -9543,13 +9495,13 @@
         <v>983</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>36</v>
+        <v>616</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9564,13 +9516,13 @@
         <v>3811</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -9579,13 +9531,13 @@
         <v>6531</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -9594,13 +9546,13 @@
         <v>10342</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>41</v>
+        <v>624</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9615,13 +9567,13 @@
         <v>34520</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>250</v>
+        <v>627</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="H22" s="7">
         <v>148</v>
@@ -9630,13 +9582,13 @@
         <v>57966</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>631</v>
       </c>
       <c r="M22" s="7">
         <v>212</v>
@@ -9645,13 +9597,13 @@
         <v>92487</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>639</v>
+        <v>434</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9707,7 +9659,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9719,13 +9671,13 @@
         <v>1591</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -9734,13 +9686,13 @@
         <v>4174</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>647</v>
+        <v>495</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -9749,13 +9701,13 @@
         <v>5765</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>649</v>
+        <v>426</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>650</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9770,13 +9722,13 @@
         <v>2967</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>651</v>
+        <v>381</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>283</v>
+        <v>640</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>652</v>
+        <v>321</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -9785,13 +9737,13 @@
         <v>6983</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
@@ -9800,13 +9752,13 @@
         <v>9951</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>657</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9821,13 +9773,13 @@
         <v>58625</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="H26" s="7">
         <v>146</v>
@@ -9836,13 +9788,13 @@
         <v>58696</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="M26" s="7">
         <v>270</v>
@@ -9851,13 +9803,13 @@
         <v>117321</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9913,7 +9865,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9925,13 +9877,13 @@
         <v>1339</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -9940,13 +9892,13 @@
         <v>4046</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -9955,13 +9907,13 @@
         <v>5384</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>541</v>
+        <v>182</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>673</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9976,13 +9928,13 @@
         <v>698</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -9991,13 +9943,13 @@
         <v>7850</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>673</v>
+        <v>148</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -10006,13 +9958,13 @@
         <v>8548</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>464</v>
+        <v>663</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>677</v>
+        <v>399</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10027,10 +9979,10 @@
         <v>128803</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>30</v>
@@ -10042,13 +9994,13 @@
         <v>246320</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>681</v>
+        <v>609</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>454</v>
+        <v>668</v>
       </c>
       <c r="M30" s="7">
         <v>389</v>
@@ -10057,13 +10009,13 @@
         <v>375123</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10119,7 +10071,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -10131,13 +10083,13 @@
         <v>159</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -10152,7 +10104,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>688</v>
+        <v>427</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -10161,13 +10113,13 @@
         <v>159</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10182,13 +10134,13 @@
         <v>2124</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>22</v>
+        <v>517</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>160</v>
+        <v>676</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -10197,13 +10149,13 @@
         <v>8026</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>691</v>
+        <v>122</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>692</v>
+        <v>530</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>99</v>
+        <v>677</v>
       </c>
       <c r="M33" s="7">
         <v>12</v>
@@ -10212,13 +10164,13 @@
         <v>10151</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>694</v>
+        <v>507</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10233,13 +10185,13 @@
         <v>167643</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="H34" s="7">
         <v>334</v>
@@ -10248,13 +10200,13 @@
         <v>215017</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>698</v>
+        <v>132</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="M34" s="7">
         <v>565</v>
@@ -10263,13 +10215,13 @@
         <v>382660</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>702</v>
+        <v>31</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10340,10 +10292,10 @@
         <v>82</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>704</v>
+        <v>142</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="H36" s="7">
         <v>33</v>
@@ -10352,13 +10304,13 @@
         <v>17962</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>477</v>
+        <v>686</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>14</v>
+        <v>688</v>
       </c>
       <c r="M36" s="7">
         <v>43</v>
@@ -10367,13 +10319,13 @@
         <v>23664</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10388,13 +10340,13 @@
         <v>21091</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>710</v>
+        <v>565</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="H37" s="7">
         <v>114</v>
@@ -10403,13 +10355,13 @@
         <v>63569</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>546</v>
+        <v>695</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="M37" s="7">
         <v>148</v>
@@ -10418,13 +10370,13 @@
         <v>84659</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>715</v>
+        <v>572</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10439,13 +10391,13 @@
         <v>670129</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>198</v>
+        <v>698</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="H38" s="7">
         <v>1559</v>
@@ -10454,13 +10406,13 @@
         <v>944044</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="M38" s="7">
         <v>2542</v>
@@ -10469,13 +10421,13 @@
         <v>1614173</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>295</v>
+        <v>706</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10531,7 +10483,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5408-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5408-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9377917A-C112-43B7-B65E-6DDC6F78DEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F740FE5-9D02-4B6B-8429-E361E9865788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66D0D957-D8B7-4724-87E3-B292B95E208F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{45D86245-2595-4AC7-94AE-D67BF63E82D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="729">
   <si>
     <t>Población según si es capaz de usar el bater en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -650,7 +650,67 @@
     <t>Población según si es capaz de usar el bater en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
   </si>
   <si>
     <t>2,69%</t>
@@ -794,1372 +854,1378 @@
     <t>92,85%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
   </si>
   <si>
     <t>96,42%</t>
   </si>
   <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
   </si>
 </sst>
 </file>
@@ -2571,7 +2637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4D8788-365A-4961-B74D-295573F23504}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1DF3F9-5D38-4CD4-9F72-21B60BD67D1C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4561,7 +4627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE0FDB1-D027-4AC9-92F5-C45FC485BB90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCF5A21-AB02-44A8-8D83-72BAA9F33176}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4679,43 +4745,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>994</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>203</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>994</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,43 +4796,49 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3986</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5515</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="N5" s="7">
+        <v>9501</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,43 +4847,49 @@
         <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="D6" s="7">
+        <v>39301</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="I6" s="7">
+        <v>43379</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="N6" s="7">
+        <v>82680</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,43 +4898,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D7" s="7">
+        <v>44281</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="I7" s="7">
+        <v>48894</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="N7" s="7">
+        <v>93175</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>203</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4957,13 @@
         <v>2130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4882,13 +4972,13 @@
         <v>4467</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -4897,13 +4987,13 @@
         <v>6597</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,13 +5008,13 @@
         <v>4200</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -4933,13 +5023,13 @@
         <v>7856</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -4951,10 +5041,10 @@
         <v>188</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +5059,13 @@
         <v>72873</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>83</v>
@@ -4984,13 +5074,13 @@
         <v>89770</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>147</v>
@@ -4999,10 +5089,10 @@
         <v>162643</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>127</v>
@@ -5073,13 +5163,13 @@
         <v>2988</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -5094,7 +5184,7 @@
         <v>60</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -5103,13 +5193,13 @@
         <v>8449</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5214,13 @@
         <v>2076</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5139,13 +5229,13 @@
         <v>5397</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -5154,13 +5244,13 @@
         <v>7473</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5265,13 @@
         <v>50679</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="H14" s="7">
         <v>65</v>
@@ -5190,13 +5280,13 @@
         <v>69109</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>113</v>
@@ -5205,13 +5295,13 @@
         <v>119788</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5273,19 +5363,19 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>994</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5300,22 +5390,22 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>994</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,49 +5414,49 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>6119</v>
+        <v>2133</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>7634</v>
+        <v>2119</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="M17" s="7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>13753</v>
+        <v>4252</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,49 +5465,49 @@
         <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="D18" s="7">
-        <v>101195</v>
+        <v>61895</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>266</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="I18" s="7">
-        <v>126834</v>
+        <v>83455</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="N18" s="7">
-        <v>228030</v>
+        <v>145350</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>270</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,10 +5516,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7">
-        <v>108308</v>
+        <v>64028</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>34</v>
@@ -5441,10 +5531,10 @@
         <v>34</v>
       </c>
       <c r="H19" s="7">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="I19" s="7">
-        <v>134468</v>
+        <v>85574</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>34</v>
@@ -5456,10 +5546,10 @@
         <v>34</v>
       </c>
       <c r="M19" s="7">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="N19" s="7">
-        <v>242777</v>
+        <v>149602</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>34</v>
@@ -5491,7 +5581,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5500,13 +5590,13 @@
         <v>1987</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5515,13 +5605,13 @@
         <v>1987</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5536,13 +5626,13 @@
         <v>3292</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -5551,13 +5641,13 @@
         <v>3208</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -5566,13 +5656,13 @@
         <v>6500</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>116</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,13 +5677,13 @@
         <v>28320</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -5602,13 +5692,13 @@
         <v>44660</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -5617,13 +5707,13 @@
         <v>72980</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5781,13 @@
         <v>1057</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -5706,13 +5796,13 @@
         <v>1056</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -5727,7 +5817,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,13 +5832,13 @@
         <v>2150</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5757,13 +5847,13 @@
         <v>6375</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -5772,13 +5862,13 @@
         <v>8525</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +5883,13 @@
         <v>48549</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -5808,13 +5898,13 @@
         <v>62780</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="M26" s="7">
         <v>109</v>
@@ -5823,13 +5913,13 @@
         <v>111329</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,13 +5987,13 @@
         <v>3301</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -5918,7 +6008,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -5927,13 +6017,13 @@
         <v>5326</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,13 +6038,13 @@
         <v>3937</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>143</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -5963,13 +6053,13 @@
         <v>10016</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -5984,7 +6074,7 @@
         <v>116</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,10 +6089,10 @@
         <v>105025</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>69</v>
@@ -6014,13 +6104,13 @@
         <v>129921</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="M30" s="7">
         <v>212</v>
@@ -6029,13 +6119,13 @@
         <v>234947</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,13 +6208,13 @@
         <v>4357</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -6133,13 +6223,13 @@
         <v>4357</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,13 +6244,13 @@
         <v>4450</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -6169,13 +6259,13 @@
         <v>5624</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
@@ -6184,13 +6274,13 @@
         <v>10074</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,13 +6295,13 @@
         <v>116302</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="H34" s="7">
         <v>142</v>
@@ -6220,13 +6310,13 @@
         <v>154435</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>269</v>
+        <v>365</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>244</v>
@@ -6235,13 +6325,13 @@
         <v>270737</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,13 +6399,13 @@
         <v>10470</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="H36" s="7">
         <v>17</v>
@@ -6327,10 +6417,10 @@
         <v>162</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="M36" s="7">
         <v>26</v>
@@ -6339,13 +6429,13 @@
         <v>29824</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,10 +6453,10 @@
         <v>186</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="H37" s="7">
         <v>42</v>
@@ -6375,13 +6465,13 @@
         <v>46111</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="M37" s="7">
         <v>66</v>
@@ -6390,13 +6480,13 @@
         <v>72334</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,13 +6501,13 @@
         <v>522945</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="H38" s="7">
         <v>635</v>
@@ -6426,13 +6516,13 @@
         <v>677509</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>170</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="M38" s="7">
         <v>1106</v>
@@ -6441,13 +6531,13 @@
         <v>1200454</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,7 +6617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B5A8DD-0BFE-466A-A95D-8F199D516303}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8749368A-AF4D-4AC4-A1DD-7E6BB774A5B0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6544,7 +6634,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6651,13 +6741,13 @@
         <v>802</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>257</v>
+        <v>393</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6672,7 +6762,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6681,13 +6771,13 @@
         <v>802</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6702,13 +6792,13 @@
         <v>3188</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>255</v>
+        <v>398</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -6717,13 +6807,13 @@
         <v>2328</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -6732,13 +6822,13 @@
         <v>5516</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,13 +6843,13 @@
         <v>34906</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="H6" s="7">
         <v>41</v>
@@ -6768,10 +6858,10 @@
         <v>47063</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>30</v>
@@ -6783,13 +6873,13 @@
         <v>81969</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6863,7 +6953,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6872,13 +6962,13 @@
         <v>1347</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6887,13 +6977,13 @@
         <v>1347</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>400</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,7 +7004,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -6923,13 +7013,13 @@
         <v>8037</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -6938,13 +7028,13 @@
         <v>9941</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>406</v>
+        <v>209</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6959,10 +7049,10 @@
         <v>85392</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -6974,13 +7064,13 @@
         <v>105844</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="M10" s="7">
         <v>176</v>
@@ -6989,10 +7079,10 @@
         <v>191235</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>151</v>
@@ -7069,7 +7159,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7078,13 +7168,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7093,13 +7183,13 @@
         <v>4477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7114,13 +7204,13 @@
         <v>3685</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7135,7 +7225,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -7144,13 +7234,13 @@
         <v>3685</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7165,13 +7255,13 @@
         <v>59861</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -7183,10 +7273,10 @@
         <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="M14" s="7">
         <v>134</v>
@@ -7195,13 +7285,13 @@
         <v>135280</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,13 +7359,13 @@
         <v>2957</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>141</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7299,13 +7389,13 @@
         <v>2957</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7326,7 +7416,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -7335,13 +7425,13 @@
         <v>2574</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -7353,10 +7443,10 @@
         <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7371,13 +7461,13 @@
         <v>60927</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="H18" s="7">
         <v>74</v>
@@ -7386,10 +7476,10 @@
         <v>89000</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>30</v>
@@ -7404,10 +7494,10 @@
         <v>197</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7481,7 +7571,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>453</v>
+        <v>205</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7496,7 +7586,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7511,7 +7601,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7526,13 +7616,13 @@
         <v>799</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -7544,10 +7634,10 @@
         <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -7556,13 +7646,13 @@
         <v>4248</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>176</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7577,10 +7667,10 @@
         <v>41281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>30</v>
@@ -7595,10 +7685,10 @@
         <v>67</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="M22" s="7">
         <v>89</v>
@@ -7607,13 +7697,13 @@
         <v>88364</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7681,13 +7771,13 @@
         <v>826</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -7696,13 +7786,13 @@
         <v>3741</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -7711,13 +7801,13 @@
         <v>4566</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>471</v>
+        <v>206</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7732,13 +7822,13 @@
         <v>4050</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>474</v>
+        <v>271</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -7747,13 +7837,13 @@
         <v>7206</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -7762,13 +7852,13 @@
         <v>11257</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7783,13 +7873,13 @@
         <v>43570</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="H26" s="7">
         <v>50</v>
@@ -7798,13 +7888,13 @@
         <v>56441</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="M26" s="7">
         <v>99</v>
@@ -7813,13 +7903,13 @@
         <v>100011</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7887,13 +7977,13 @@
         <v>892</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -7902,13 +7992,13 @@
         <v>2476</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -7917,13 +8007,13 @@
         <v>3368</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7938,13 +8028,13 @@
         <v>5661</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -7956,10 +8046,10 @@
         <v>83</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -7968,13 +8058,13 @@
         <v>11747</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>499</v>
+        <v>272</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7989,13 +8079,13 @@
         <v>105632</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="H30" s="7">
         <v>118</v>
@@ -8004,13 +8094,13 @@
         <v>139063</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="M30" s="7">
         <v>220</v>
@@ -8019,13 +8109,13 @@
         <v>244695</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8099,7 +8189,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -8108,13 +8198,13 @@
         <v>1342</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -8123,13 +8213,13 @@
         <v>1342</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8144,13 +8234,13 @@
         <v>3409</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -8162,10 +8252,10 @@
         <v>39</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="M33" s="7">
         <v>8</v>
@@ -8174,13 +8264,13 @@
         <v>8677</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8195,13 +8285,13 @@
         <v>130759</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="H34" s="7">
         <v>137</v>
@@ -8210,13 +8300,13 @@
         <v>169687</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="M34" s="7">
         <v>274</v>
@@ -8225,13 +8315,13 @@
         <v>300446</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8299,13 +8389,13 @@
         <v>5477</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -8314,13 +8404,13 @@
         <v>13383</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="M36" s="7">
         <v>16</v>
@@ -8335,7 +8425,7 @@
         <v>177</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8350,13 +8440,13 @@
         <v>23524</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>453</v>
+        <v>205</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="H37" s="7">
         <v>28</v>
@@ -8365,13 +8455,13 @@
         <v>34948</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -8380,13 +8470,13 @@
         <v>58472</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8401,13 +8491,13 @@
         <v>562328</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="H38" s="7">
         <v>617</v>
@@ -8416,13 +8506,13 @@
         <v>729599</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="M38" s="7">
         <v>1211</v>
@@ -8431,13 +8521,13 @@
         <v>1291927</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8517,7 +8607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494C119D-4A44-406B-B6D6-361E2E5D46F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4E0FE8-4AC3-4FE4-A1FA-7D93389D68CC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8534,7 +8624,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8647,7 +8737,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8662,7 +8752,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8689,46 +8779,46 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>697</v>
+        <v>716</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>551</v>
+        <v>141</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>4853</v>
+        <v>4836</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>554</v>
+        <v>161</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>5550</v>
+        <v>5552</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>146</v>
+        <v>564</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8740,13 +8830,13 @@
         <v>82</v>
       </c>
       <c r="D6" s="7">
-        <v>51223</v>
+        <v>55185</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>30</v>
@@ -8755,31 +8845,31 @@
         <v>124</v>
       </c>
       <c r="I6" s="7">
-        <v>57366</v>
+        <v>58573</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>559</v>
+        <v>196</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="M6" s="7">
         <v>206</v>
       </c>
       <c r="N6" s="7">
-        <v>108589</v>
+        <v>113758</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8791,7 +8881,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>51920</v>
+        <v>55901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>34</v>
@@ -8806,7 +8896,7 @@
         <v>132</v>
       </c>
       <c r="I7" s="7">
-        <v>62219</v>
+        <v>63409</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>34</v>
@@ -8821,7 +8911,7 @@
         <v>215</v>
       </c>
       <c r="N7" s="7">
-        <v>114139</v>
+        <v>119310</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>34</v>
@@ -8853,37 +8943,37 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>4867</v>
+        <v>4140</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>303</v>
+        <v>573</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>564</v>
+        <v>280</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>4867</v>
+        <v>4140</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8895,46 +8985,46 @@
         <v>5</v>
       </c>
       <c r="D9" s="7">
-        <v>4713</v>
+        <v>4385</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>257</v>
+        <v>579</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
       </c>
       <c r="I9" s="7">
-        <v>15113</v>
+        <v>13541</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>476</v>
+        <v>581</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="M9" s="7">
         <v>27</v>
       </c>
       <c r="N9" s="7">
-        <v>19826</v>
+        <v>17926</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8946,46 +9036,46 @@
         <v>90</v>
       </c>
       <c r="D10" s="7">
-        <v>81601</v>
+        <v>76324</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="H10" s="7">
         <v>195</v>
       </c>
       <c r="I10" s="7">
-        <v>121378</v>
+        <v>111311</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>592</v>
       </c>
       <c r="M10" s="7">
         <v>285</v>
       </c>
       <c r="N10" s="7">
-        <v>202979</v>
+        <v>187635</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>431</v>
+        <v>594</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>580</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8997,7 +9087,7 @@
         <v>95</v>
       </c>
       <c r="D11" s="7">
-        <v>86314</v>
+        <v>80709</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>34</v>
@@ -9012,7 +9102,7 @@
         <v>223</v>
       </c>
       <c r="I11" s="7">
-        <v>141357</v>
+        <v>128992</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>34</v>
@@ -9027,7 +9117,7 @@
         <v>318</v>
       </c>
       <c r="N11" s="7">
-        <v>227671</v>
+        <v>209700</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>34</v>
@@ -9050,46 +9140,46 @@
         <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>2613</v>
+        <v>2457</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>1653</v>
+        <v>1490</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>423</v>
+        <v>480</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>583</v>
+        <v>520</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>4266</v>
+        <v>3947</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9101,46 +9191,46 @@
         <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>5351</v>
+        <v>5037</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>11384</v>
+        <v>10354</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
       </c>
       <c r="N13" s="7">
-        <v>16735</v>
+        <v>15392</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9152,46 +9242,46 @@
         <v>109</v>
       </c>
       <c r="D14" s="7">
-        <v>69637</v>
+        <v>65996</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>388</v>
+        <v>611</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>446</v>
+        <v>613</v>
       </c>
       <c r="H14" s="7">
         <v>145</v>
       </c>
       <c r="I14" s="7">
-        <v>81914</v>
+        <v>75581</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>599</v>
+        <v>48</v>
       </c>
       <c r="M14" s="7">
         <v>254</v>
       </c>
       <c r="N14" s="7">
-        <v>151551</v>
+        <v>141577</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>53</v>
+        <v>618</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9203,7 +9293,7 @@
         <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>77601</v>
+        <v>73490</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>34</v>
@@ -9218,7 +9308,7 @@
         <v>169</v>
       </c>
       <c r="I15" s="7">
-        <v>94951</v>
+        <v>87425</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>34</v>
@@ -9233,7 +9323,7 @@
         <v>291</v>
       </c>
       <c r="N15" s="7">
-        <v>172552</v>
+        <v>160915</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>34</v>
@@ -9265,37 +9355,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>2239</v>
+        <v>2087</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>583</v>
+        <v>520</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>206</v>
+        <v>621</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>2239</v>
+        <v>2087</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>38</v>
+        <v>413</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>334</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9307,46 +9397,46 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>251</v>
+        <v>143</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>2829</v>
+        <v>2670</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>624</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>606</v>
+        <v>625</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>3557</v>
+        <v>3339</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>607</v>
+        <v>360</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9358,13 +9448,13 @@
         <v>117</v>
       </c>
       <c r="D18" s="7">
-        <v>78077</v>
+        <v>73999</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>609</v>
+        <v>221</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>30</v>
@@ -9373,31 +9463,31 @@
         <v>244</v>
       </c>
       <c r="I18" s="7">
-        <v>105387</v>
+        <v>98879</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="M18" s="7">
         <v>361</v>
       </c>
       <c r="N18" s="7">
-        <v>183464</v>
+        <v>172877</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9409,7 +9499,7 @@
         <v>118</v>
       </c>
       <c r="D19" s="7">
-        <v>78805</v>
+        <v>74668</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>34</v>
@@ -9424,7 +9514,7 @@
         <v>256</v>
       </c>
       <c r="I19" s="7">
-        <v>110455</v>
+        <v>103636</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>34</v>
@@ -9439,7 +9529,7 @@
         <v>374</v>
       </c>
       <c r="N19" s="7">
-        <v>189260</v>
+        <v>178303</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>34</v>
@@ -9471,37 +9561,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>983</v>
+        <v>857</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>295</v>
+        <v>633</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>498</v>
+        <v>634</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>983</v>
+        <v>857</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>160</v>
+        <v>354</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9513,46 +9603,46 @@
         <v>7</v>
       </c>
       <c r="D21" s="7">
-        <v>3811</v>
+        <v>3436</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>619</v>
+        <v>638</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
       </c>
       <c r="I21" s="7">
-        <v>6531</v>
+        <v>5798</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>620</v>
+        <v>639</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
       </c>
       <c r="N21" s="7">
-        <v>10342</v>
+        <v>9234</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9564,46 +9654,46 @@
         <v>64</v>
       </c>
       <c r="D22" s="7">
-        <v>34520</v>
+        <v>31380</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="H22" s="7">
         <v>148</v>
       </c>
       <c r="I22" s="7">
-        <v>57966</v>
+        <v>52591</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="M22" s="7">
         <v>212</v>
       </c>
       <c r="N22" s="7">
-        <v>92487</v>
+        <v>83971</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>434</v>
+        <v>651</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9615,7 +9705,7 @@
         <v>71</v>
       </c>
       <c r="D23" s="7">
-        <v>38331</v>
+        <v>34816</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>34</v>
@@ -9630,7 +9720,7 @@
         <v>165</v>
       </c>
       <c r="I23" s="7">
-        <v>65480</v>
+        <v>59246</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>34</v>
@@ -9645,7 +9735,7 @@
         <v>236</v>
       </c>
       <c r="N23" s="7">
-        <v>103812</v>
+        <v>94062</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>34</v>
@@ -9668,46 +9758,46 @@
         <v>4</v>
       </c>
       <c r="D24" s="7">
-        <v>1591</v>
+        <v>1512</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>636</v>
+        <v>378</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
       </c>
       <c r="I24" s="7">
-        <v>4174</v>
+        <v>3848</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>637</v>
+        <v>656</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>638</v>
+        <v>657</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>495</v>
+        <v>658</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
       </c>
       <c r="N24" s="7">
-        <v>5765</v>
+        <v>5360</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>639</v>
+        <v>547</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>426</v>
+        <v>659</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>588</v>
+        <v>660</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9719,46 +9809,46 @@
         <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>2967</v>
+        <v>2832</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>640</v>
+        <v>37</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>321</v>
+        <v>661</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
       </c>
       <c r="I25" s="7">
-        <v>6983</v>
+        <v>6571</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>641</v>
+        <v>662</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>642</v>
+        <v>663</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>643</v>
+        <v>664</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
       </c>
       <c r="N25" s="7">
-        <v>9951</v>
+        <v>9403</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>644</v>
+        <v>665</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>666</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9770,46 +9860,46 @@
         <v>124</v>
       </c>
       <c r="D26" s="7">
-        <v>58625</v>
+        <v>55917</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>647</v>
+        <v>669</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>648</v>
+        <v>670</v>
       </c>
       <c r="H26" s="7">
         <v>146</v>
       </c>
       <c r="I26" s="7">
-        <v>58696</v>
+        <v>54839</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>649</v>
+        <v>671</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>650</v>
+        <v>672</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>651</v>
+        <v>673</v>
       </c>
       <c r="M26" s="7">
         <v>270</v>
       </c>
       <c r="N26" s="7">
-        <v>117321</v>
+        <v>110756</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>652</v>
+        <v>674</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>653</v>
+        <v>675</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>654</v>
+        <v>676</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9821,7 +9911,7 @@
         <v>135</v>
       </c>
       <c r="D27" s="7">
-        <v>63183</v>
+        <v>60261</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>34</v>
@@ -9836,7 +9926,7 @@
         <v>177</v>
       </c>
       <c r="I27" s="7">
-        <v>69853</v>
+        <v>65258</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>34</v>
@@ -9851,7 +9941,7 @@
         <v>312</v>
       </c>
       <c r="N27" s="7">
-        <v>133037</v>
+        <v>125519</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>34</v>
@@ -9874,46 +9964,46 @@
         <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>1339</v>
+        <v>1202</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>655</v>
+        <v>677</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>656</v>
+        <v>678</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
       </c>
       <c r="I28" s="7">
-        <v>4046</v>
+        <v>3708</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>657</v>
+        <v>679</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
       </c>
       <c r="N28" s="7">
-        <v>5384</v>
+        <v>4910</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>182</v>
+        <v>682</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>492</v>
+        <v>683</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>362</v>
+        <v>632</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9925,46 +10015,46 @@
         <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>698</v>
+        <v>671</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>444</v>
+        <v>684</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>660</v>
+        <v>190</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
       </c>
       <c r="I29" s="7">
-        <v>7850</v>
+        <v>6949</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>148</v>
+        <v>398</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>661</v>
+        <v>685</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
       </c>
       <c r="N29" s="7">
-        <v>8548</v>
+        <v>7620</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>663</v>
+        <v>158</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>399</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>664</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9976,13 +10066,13 @@
         <v>166</v>
       </c>
       <c r="D30" s="7">
-        <v>128803</v>
+        <v>121380</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>665</v>
+        <v>687</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>666</v>
+        <v>688</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>30</v>
@@ -9991,31 +10081,31 @@
         <v>223</v>
       </c>
       <c r="I30" s="7">
-        <v>246320</v>
+        <v>327946</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>609</v>
+        <v>302</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>667</v>
+        <v>689</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>668</v>
+        <v>690</v>
       </c>
       <c r="M30" s="7">
         <v>389</v>
       </c>
       <c r="N30" s="7">
-        <v>375123</v>
+        <v>449326</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>669</v>
+        <v>691</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>670</v>
+        <v>692</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>671</v>
+        <v>693</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10027,7 +10117,7 @@
         <v>168</v>
       </c>
       <c r="D31" s="7">
-        <v>130840</v>
+        <v>123254</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>34</v>
@@ -10042,7 +10132,7 @@
         <v>241</v>
       </c>
       <c r="I31" s="7">
-        <v>258216</v>
+        <v>338603</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>34</v>
@@ -10057,7 +10147,7 @@
         <v>409</v>
       </c>
       <c r="N31" s="7">
-        <v>389056</v>
+        <v>461857</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>34</v>
@@ -10080,16 +10170,16 @@
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>672</v>
+        <v>694</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>673</v>
+        <v>695</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -10104,22 +10194,22 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>674</v>
+        <v>696</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>675</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10131,46 +10221,46 @@
         <v>3</v>
       </c>
       <c r="D33" s="7">
-        <v>2124</v>
+        <v>1833</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>254</v>
+        <v>697</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>676</v>
+        <v>698</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
       </c>
       <c r="I33" s="7">
-        <v>8026</v>
+        <v>5659</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>122</v>
+        <v>699</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>530</v>
+        <v>310</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>677</v>
+        <v>140</v>
       </c>
       <c r="M33" s="7">
         <v>12</v>
       </c>
       <c r="N33" s="7">
-        <v>10151</v>
+        <v>7493</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>678</v>
+        <v>700</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>507</v>
+        <v>701</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>679</v>
+        <v>702</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10182,46 +10272,46 @@
         <v>231</v>
       </c>
       <c r="D34" s="7">
-        <v>167643</v>
+        <v>145089</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>557</v>
+        <v>703</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>680</v>
+        <v>704</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>681</v>
+        <v>705</v>
       </c>
       <c r="H34" s="7">
         <v>334</v>
       </c>
       <c r="I34" s="7">
-        <v>215017</v>
+        <v>180983</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>132</v>
+        <v>706</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>682</v>
+        <v>707</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>683</v>
+        <v>708</v>
       </c>
       <c r="M34" s="7">
         <v>565</v>
       </c>
       <c r="N34" s="7">
-        <v>382660</v>
+        <v>326071</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>684</v>
+        <v>709</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>31</v>
+        <v>710</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>685</v>
+        <v>711</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10233,7 +10323,7 @@
         <v>235</v>
       </c>
       <c r="D35" s="7">
-        <v>169927</v>
+        <v>147080</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>34</v>
@@ -10248,7 +10338,7 @@
         <v>343</v>
       </c>
       <c r="I35" s="7">
-        <v>223043</v>
+        <v>186642</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>34</v>
@@ -10263,7 +10353,7 @@
         <v>578</v>
       </c>
       <c r="N35" s="7">
-        <v>392970</v>
+        <v>333722</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>34</v>
@@ -10286,7 +10376,7 @@
         <v>10</v>
       </c>
       <c r="D36" s="7">
-        <v>5702</v>
+        <v>5329</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>82</v>
@@ -10295,37 +10385,37 @@
         <v>142</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="H36" s="7">
         <v>33</v>
       </c>
       <c r="I36" s="7">
-        <v>17962</v>
+        <v>16130</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>686</v>
+        <v>712</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>687</v>
+        <v>576</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>688</v>
+        <v>63</v>
       </c>
       <c r="M36" s="7">
         <v>43</v>
       </c>
       <c r="N36" s="7">
-        <v>23664</v>
+        <v>21459</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>689</v>
+        <v>357</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>690</v>
+        <v>177</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>691</v>
+        <v>713</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10337,46 +10427,46 @@
         <v>34</v>
       </c>
       <c r="D37" s="7">
-        <v>21091</v>
+        <v>19580</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>692</v>
+        <v>714</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>565</v>
+        <v>715</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>693</v>
+        <v>716</v>
       </c>
       <c r="H37" s="7">
         <v>114</v>
       </c>
       <c r="I37" s="7">
-        <v>63569</v>
+        <v>56378</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>694</v>
+        <v>454</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>695</v>
+        <v>19</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>696</v>
+        <v>717</v>
       </c>
       <c r="M37" s="7">
         <v>148</v>
       </c>
       <c r="N37" s="7">
-        <v>84659</v>
+        <v>75958</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>405</v>
+        <v>718</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>697</v>
+        <v>719</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>572</v>
+        <v>720</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10388,46 +10478,46 @@
         <v>983</v>
       </c>
       <c r="D38" s="7">
-        <v>670129</v>
+        <v>625269</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>699</v>
+        <v>721</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="H38" s="7">
         <v>1559</v>
       </c>
       <c r="I38" s="7">
-        <v>944044</v>
+        <v>960703</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>701</v>
+        <v>723</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>702</v>
+        <v>724</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>703</v>
+        <v>725</v>
       </c>
       <c r="M38" s="7">
         <v>2542</v>
       </c>
       <c r="N38" s="7">
-        <v>1614173</v>
+        <v>1585972</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>704</v>
+        <v>726</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>705</v>
+        <v>727</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>706</v>
+        <v>728</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10439,7 +10529,7 @@
         <v>1027</v>
       </c>
       <c r="D39" s="7">
-        <v>696921</v>
+        <v>650178</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>34</v>
@@ -10454,7 +10544,7 @@
         <v>1706</v>
       </c>
       <c r="I39" s="7">
-        <v>1025575</v>
+        <v>1033211</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>34</v>
@@ -10469,7 +10559,7 @@
         <v>2733</v>
       </c>
       <c r="N39" s="7">
-        <v>1722496</v>
+        <v>1683389</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>34</v>
